--- a/ExcelData/Data_Table/SubMonsterTable.xlsx
+++ b/ExcelData/Data_Table/SubMonsterTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5307C441-9A9D-4097-90B6-FF71FDC04B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C195A806-DFF7-4A5A-9D3E-50FBE905D204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="22530" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1845" yWindow="4770" windowWidth="14955" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SubMonsterTable" sheetId="2" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>Name_KR</t>
   </si>
   <si>
-    <t>Mon_Index</t>
-  </si>
-  <si>
     <t>Component</t>
   </si>
   <si>
@@ -105,6 +102,10 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>SubMonsterIndex</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -768,7 +769,7 @@
   <dimension ref="A1:R1000"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -776,7 +777,7 @@
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="7.375" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
@@ -884,7 +885,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>17</v>
@@ -893,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="2"/>
@@ -920,10 +921,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>3</v>
@@ -947,7 +948,7 @@
         <v>3</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="2"/>

--- a/ExcelData/Data_Table/SubMonsterTable.xlsx
+++ b/ExcelData/Data_Table/SubMonsterTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C195A806-DFF7-4A5A-9D3E-50FBE905D204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B6202A-A9F9-4DFF-80D9-61498B24175A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="4770" windowWidth="14955" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SubMonsterTable" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Defense</t>
   </si>
@@ -107,6 +107,22 @@
     <t>SubMonsterIndex</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>늑대</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘프</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wolf</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elf</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -115,7 +131,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -173,6 +189,13 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -376,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -451,6 +474,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,9 +797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleSheetLayoutView="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -962,15 +989,33 @@
       <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="C6" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="13">
+        <v>941001</v>
+      </c>
+      <c r="F6" s="13">
+        <v>100</v>
+      </c>
+      <c r="G6" s="13">
+        <v>10</v>
+      </c>
+      <c r="H6" s="13">
+        <v>10</v>
+      </c>
+      <c r="I6" s="13">
+        <v>5</v>
+      </c>
+      <c r="J6" s="13">
+        <v>241001</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="4"/>
       <c r="N6" s="2"/>
@@ -984,15 +1029,33 @@
       <c r="B7" s="11">
         <v>2</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="C7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="13">
+        <v>941002</v>
+      </c>
+      <c r="F7" s="13">
+        <v>100</v>
+      </c>
+      <c r="G7" s="13">
+        <v>20</v>
+      </c>
+      <c r="H7" s="13">
+        <v>30</v>
+      </c>
+      <c r="I7" s="13">
+        <v>10</v>
+      </c>
+      <c r="J7" s="13">
+        <v>241002</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="4"/>
       <c r="N7" s="2"/>
@@ -21073,11 +21136,11 @@
   <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="3" max="16383" man="1"/>
-    <brk id="8" max="16383" man="1"/>
+    <brk id="7" max="22" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="1" max="1048575" man="1"/>
-    <brk id="9" max="1048575" man="1"/>
+    <brk id="11" max="47" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
--- a/ExcelData/Data_Table/SubMonsterTable.xlsx
+++ b/ExcelData/Data_Table/SubMonsterTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B6202A-A9F9-4DFF-80D9-61498B24175A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959FA257-DAE0-429B-A1C6-5798693CBBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,6 +448,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -474,12 +480,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,7 +797,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleSheetLayoutView="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -836,29 +838,29 @@
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="22" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="16" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="18" t="s">
         <v>9</v>
       </c>
       <c r="M2" s="1"/>
@@ -870,10 +872,10 @@
     </row>
     <row r="3" spans="1:18" ht="16.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="14" t="s">
         <v>7</v>
       </c>
@@ -892,7 +894,7 @@
       <c r="K3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="17"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="1"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -989,7 +991,7 @@
       <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -1029,10 +1031,10 @@
       <c r="B7" s="11">
         <v>2</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="13">
@@ -1054,7 +1056,7 @@
         <v>241002</v>
       </c>
       <c r="K7" s="13">
-        <v>0</v>
+        <v>241003</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="4"/>

--- a/ExcelData/Data_Table/SubMonsterTable.xlsx
+++ b/ExcelData/Data_Table/SubMonsterTable.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssy12\Desktop\팀 프로젝트\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BFD5B7-73FF-46D9-8ADC-E1EDECD6713B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3D8817-C8A5-4BBC-BD99-20A9527941E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="2490" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SubMonsterTable" sheetId="2" r:id="rId1"/>
+    <sheet name="SubMonster_Table" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SubMonsterTable!$B$5:$M$105</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">SubMonsterTable!$A$1:$X$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SubMonster_Table!$B$5:$M$105</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">SubMonster_Table!$A$1:$X$48</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -820,7 +820,7 @@
   <dimension ref="A1:S1000"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F2" sqref="F2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
